--- a/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06FF23D-9775-4791-A516-D8710E1238B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2721624A-D700-4F42-A8DB-1F9811486E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1094,7 @@
         <v>0.1</v>
       </c>
       <c r="K7" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>3.4</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0.1</v>
       </c>
       <c r="K8" s="2">
-        <v>9.7000000000000003E-2</v>
+        <v>3.4</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0.1</v>
       </c>
       <c r="K9" s="2">
-        <v>0.05</v>
+        <v>3.4</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ACC5F-EF26-4033-AF30-0ACBB3F95500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D4016-0C9E-4B13-A0C0-3ECDBABF0949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3228" yWindow="1992" windowWidth="14028" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,11 +238,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +705,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="10">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -776,8 +785,8 @@
       <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="2">
-        <v>4.2999999999999997E-2</v>
+      <c r="K3" s="10">
+        <v>0.11</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -856,7 +865,7 @@
       <c r="J4">
         <v>0.1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="10">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="L4" s="2">
@@ -938,8 +947,8 @@
       <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="K5" s="2">
-        <v>4.1000000000000002E-2</v>
+      <c r="K5" s="10">
+        <v>0.11</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1018,7 +1027,7 @@
       <c r="J6">
         <v>0.1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="10">
         <v>0.05</v>
       </c>
       <c r="L6" s="2">
@@ -1098,8 +1107,8 @@
       <c r="J7">
         <v>0.1</v>
       </c>
-      <c r="K7" s="2">
-        <v>3.4</v>
+      <c r="K7" s="10">
+        <v>2.72</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1184,8 +1193,8 @@
       <c r="J8">
         <v>0.1</v>
       </c>
-      <c r="K8" s="2">
-        <v>3.4</v>
+      <c r="K8" s="10">
+        <v>2.72</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1268,8 +1277,8 @@
       <c r="J9">
         <v>0.1</v>
       </c>
-      <c r="K9" s="2">
-        <v>3.4</v>
+      <c r="K9" s="10">
+        <v>2.72</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D4016-0C9E-4B13-A0C0-3ECDBABF0949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ACC5F-EF26-4033-AF30-0ACBB3F95500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="1992" windowWidth="14028" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -238,14 +232,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,7 +696,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -785,8 +776,8 @@
       <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="10">
-        <v>0.11</v>
+      <c r="K3" s="2">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -865,7 +856,7 @@
       <c r="J4">
         <v>0.1</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="L4" s="2">
@@ -947,8 +938,8 @@
       <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="K5" s="10">
-        <v>0.11</v>
+      <c r="K5" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1027,7 +1018,7 @@
       <c r="J6">
         <v>0.1</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="2">
         <v>0.05</v>
       </c>
       <c r="L6" s="2">
@@ -1107,8 +1098,8 @@
       <c r="J7">
         <v>0.1</v>
       </c>
-      <c r="K7" s="10">
-        <v>2.72</v>
+      <c r="K7" s="2">
+        <v>3.4</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1193,8 +1184,8 @@
       <c r="J8">
         <v>0.1</v>
       </c>
-      <c r="K8" s="10">
-        <v>2.72</v>
+      <c r="K8" s="2">
+        <v>3.4</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1277,8 +1268,8 @@
       <c r="J9">
         <v>0.1</v>
       </c>
-      <c r="K9" s="10">
-        <v>2.72</v>
+      <c r="K9" s="2">
+        <v>3.4</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s4\Annelinn\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B312DB-EE4B-404E-90F0-D890B81A001C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7DAACF-055F-41DD-B217-66002E878728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -160,12 +160,6 @@
   </si>
   <si>
     <t>price_sigma</t>
-  </si>
-  <si>
-    <t>CO2km_min</t>
-  </si>
-  <si>
-    <t>CO2km_max</t>
   </si>
 </sst>
 </file>
@@ -230,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -250,18 +244,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,17 +597,16 @@
     <col min="17" max="18" width="11.109375" style="5" customWidth="1"/>
     <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.6640625" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,32 +667,26 @@
       <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Y1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -728,7 +711,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="12">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -740,10 +723,10 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="13">
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
         <v>0</v>
       </c>
       <c r="Q2" s="5">
@@ -758,16 +741,16 @@
       <c r="T2" s="8">
         <v>0</v>
       </c>
-      <c r="U2" s="8">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W2" s="12">
-        <v>0</v>
-      </c>
-      <c r="X2" s="12">
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
@@ -776,14 +759,8 @@
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -814,8 +791,8 @@
       <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="11">
-        <v>3.3000000000000002E-2</v>
+      <c r="K3" s="12">
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -826,11 +803,11 @@
       <c r="N3" s="2">
         <v>2.94</v>
       </c>
-      <c r="O3" s="11">
-        <v>1.3420000000000001</v>
-      </c>
-      <c r="P3" s="11">
-        <v>1.2190000000000001</v>
+      <c r="O3" s="12">
+        <v>2.0065</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0.67849999999999999</v>
       </c>
       <c r="Q3" s="6">
         <v>9999</v>
@@ -844,17 +821,17 @@
       <c r="T3" s="8">
         <v>0</v>
       </c>
-      <c r="U3" s="8">
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W3" s="12">
-        <v>85.105000000000004</v>
-      </c>
-      <c r="X3" s="12">
-        <v>79.673000000000002</v>
+      <c r="U3" s="14">
+        <v>108.2555</v>
+      </c>
+      <c r="V3" s="14">
+        <v>63.486499999999999</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -862,14 +839,8 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -900,7 +871,7 @@
       <c r="J4">
         <v>0.1</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="12">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="L4" s="2">
@@ -912,11 +883,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="11">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0.35099999999999998</v>
+      <c r="O4" s="12">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0.20349999999999999</v>
       </c>
       <c r="Q4" s="6">
         <v>9999</v>
@@ -926,38 +897,32 @@
       </c>
       <c r="S4" s="9">
         <f>O4*0.5</f>
-        <v>0.214</v>
+        <v>0.31674999999999998</v>
       </c>
       <c r="T4" s="9">
         <f>P4*0.5</f>
-        <v>0.17549999999999999</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W4" s="12">
-        <v>0</v>
-      </c>
-      <c r="X4" s="12">
-        <v>0</v>
+        <v>0.10174999999999999</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>80</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Z4">
-        <v>10</v>
-      </c>
-      <c r="AA4">
-        <v>60</v>
-      </c>
-      <c r="AB4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -988,8 +953,8 @@
       <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="K5" s="11">
-        <v>3.3000000000000002E-2</v>
+      <c r="K5" s="12">
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1000,11 +965,11 @@
       <c r="N5" s="2">
         <v>3.9049999999999998</v>
       </c>
-      <c r="O5" s="11">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="P5" s="11">
-        <v>1.0780000000000001</v>
+      <c r="O5" s="12">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.628</v>
       </c>
       <c r="Q5" s="6">
         <v>9999</v>
@@ -1018,17 +983,17 @@
       <c r="T5" s="8">
         <v>0</v>
       </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W5" s="12">
-        <v>75.765000000000001</v>
-      </c>
-      <c r="X5" s="12">
-        <v>74.77</v>
+      <c r="U5" s="14">
+        <v>84.636499999999998</v>
+      </c>
+      <c r="V5" s="14">
+        <v>69.209000000000003</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1036,14 +1001,8 @@
       <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1033,7 @@
       <c r="J6">
         <v>0.1</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="12">
         <v>0.05</v>
       </c>
       <c r="L6" s="2">
@@ -1086,11 +1045,11 @@
       <c r="N6" s="2">
         <v>2.206</v>
       </c>
-      <c r="O6" s="11">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0.95399999999999996</v>
+      <c r="O6" s="12">
+        <v>1.4584999999999999</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0.57899999999999996</v>
       </c>
       <c r="Q6" s="6">
         <v>9999</v>
@@ -1104,17 +1063,17 @@
       <c r="T6" s="8">
         <v>0</v>
       </c>
-      <c r="U6" s="8">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W6" s="12">
-        <v>17.8</v>
-      </c>
-      <c r="X6" s="12">
-        <v>39.914999999999999</v>
+      <c r="U6" s="14">
+        <v>22.809000000000001</v>
+      </c>
+      <c r="V6" s="14">
+        <v>45.003</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1122,14 +1081,8 @@
       <c r="Z6">
         <v>0</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1160,8 +1113,9 @@
       <c r="J7">
         <v>0.1</v>
       </c>
-      <c r="K7" s="11">
-        <v>0</v>
+      <c r="K7" s="12">
+        <f>3.4/2</f>
+        <v>1.7</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1174,13 +1128,13 @@
         <f>38.284/30</f>
         <v>1.2761333333333333</v>
       </c>
-      <c r="O7" s="14">
-        <f>5.45/30</f>
-        <v>0.18166666666666667</v>
-      </c>
-      <c r="P7" s="14">
-        <f>5.317/30</f>
-        <v>0.17723333333333333</v>
+      <c r="O7" s="13">
+        <f>7.1805/30</f>
+        <v>0.23935000000000001</v>
+      </c>
+      <c r="P7" s="13">
+        <f>4.40475/30</f>
+        <v>0.14682500000000001</v>
       </c>
       <c r="Q7" s="6">
         <v>9999</v>
@@ -1194,19 +1148,19 @@
       <c r="T7" s="8">
         <v>0</v>
       </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W7" s="12">
-        <f>310.302/30</f>
-        <v>10.343400000000001</v>
-      </c>
-      <c r="X7" s="12">
-        <f>342.664/30</f>
-        <v>11.422133333333333</v>
+      <c r="U7" s="14">
+        <f>417.85375/30</f>
+        <v>13.928458333333333</v>
+      </c>
+      <c r="V7" s="14">
+        <f>324.7765/30</f>
+        <v>10.825883333333334</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1214,14 +1168,8 @@
       <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1252,8 +1200,9 @@
       <c r="J8">
         <v>0.1</v>
       </c>
-      <c r="K8" s="11">
-        <v>0</v>
+      <c r="K8" s="12">
+        <f t="shared" ref="K8:K9" si="0">3.4/2</f>
+        <v>1.7</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1264,13 +1213,13 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" s="11">
-        <f>2.883/30</f>
-        <v>9.6100000000000005E-2</v>
-      </c>
-      <c r="P8" s="11">
-        <f>2.742/30</f>
-        <v>9.1399999999999995E-2</v>
+      <c r="O8" s="12">
+        <f>3.548/30</f>
+        <v>0.11826666666666667</v>
+      </c>
+      <c r="P8" s="12">
+        <f>2.4825/30</f>
+        <v>8.2750000000000004E-2</v>
       </c>
       <c r="Q8" s="6">
         <v>9999</v>
@@ -1280,38 +1229,32 @@
       </c>
       <c r="S8" s="9">
         <f>O8*0.5</f>
-        <v>4.8050000000000002E-2</v>
+        <v>5.9133333333333336E-2</v>
       </c>
       <c r="T8" s="9">
         <f>P8*0.5</f>
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W8" s="12">
-        <v>0</v>
-      </c>
-      <c r="X8" s="12">
-        <v>0</v>
+        <v>4.1375000000000002E-2</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>80</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
       </c>
       <c r="Y8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Z8">
-        <v>10</v>
-      </c>
-      <c r="AA8">
-        <v>60</v>
-      </c>
-      <c r="AB8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1342,8 +1285,9 @@
       <c r="J9">
         <v>0.1</v>
       </c>
-      <c r="K9" s="11">
-        <v>0</v>
+      <c r="K9" s="12">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -1356,13 +1300,13 @@
         <f>68.396/30</f>
         <v>2.2798666666666665</v>
       </c>
-      <c r="O9" s="14">
-        <f>8.398/30</f>
-        <v>0.27993333333333331</v>
-      </c>
-      <c r="P9" s="14">
-        <f>8.473/30</f>
-        <v>0.28243333333333337</v>
+      <c r="O9" s="13">
+        <f>10.328/30</f>
+        <v>0.34426666666666667</v>
+      </c>
+      <c r="P9" s="13">
+        <f>7.014/30</f>
+        <v>0.23380000000000001</v>
       </c>
       <c r="Q9" s="6">
         <v>9999</v>
@@ -1376,19 +1320,19 @@
       <c r="T9" s="8">
         <v>0</v>
       </c>
-      <c r="U9" s="8">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W9" s="12">
-        <f>102.678/30</f>
-        <v>3.4226000000000001</v>
-      </c>
-      <c r="X9" s="12">
-        <f>196.822/30</f>
-        <v>6.5607333333333333</v>
+      <c r="U9" s="14">
+        <f>179.91525/30</f>
+        <v>5.9971749999999995</v>
+      </c>
+      <c r="V9" s="14">
+        <f>280.794/30</f>
+        <v>9.3597999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1396,35 +1340,21 @@
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">
     <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:I6 M2:XFD2 J2:J6 S4:T4 T4:T7 A10:L10 A11:XFD1048576 J1:XFD1 W4:XFD4 U3:V9">
+  <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 S4:XFD4 T4:T7 A10:L10 A11:XFD1048576">
     <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1439,7 +1369,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:T3 W3:XFD3">
+  <conditionalFormatting sqref="O3:XFD3">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1454,12 +1384,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10:V10 S8:T9">
+  <conditionalFormatting sqref="S8:T10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W5:XFD10">
+  <conditionalFormatting sqref="U5:XFD10">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7DAACF-055F-41DD-B217-66002E878728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ACC5F-EF26-4033-AF30-0ACBB3F95500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -238,20 +232,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +622,7 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -649,10 +634,10 @@
       <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -667,10 +652,10 @@
       <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -711,7 +696,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -723,10 +708,10 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="11">
-        <v>0</v>
-      </c>
-      <c r="P2" s="11">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" s="5">
@@ -741,10 +726,10 @@
       <c r="T2" s="8">
         <v>0</v>
       </c>
-      <c r="U2" s="14">
-        <v>0</v>
-      </c>
-      <c r="V2" s="14">
+      <c r="U2" s="8">
+        <v>0</v>
+      </c>
+      <c r="V2" s="8">
         <v>0</v>
       </c>
       <c r="W2">
@@ -791,8 +776,8 @@
       <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="12">
-        <v>7.9000000000000001E-2</v>
+      <c r="K3" s="2">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -803,11 +788,11 @@
       <c r="N3" s="2">
         <v>2.94</v>
       </c>
-      <c r="O3" s="12">
-        <v>2.0065</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0.67849999999999999</v>
+      <c r="O3" s="2">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.13800000000000001</v>
       </c>
       <c r="Q3" s="6">
         <v>9999</v>
@@ -821,11 +806,11 @@
       <c r="T3" s="8">
         <v>0</v>
       </c>
-      <c r="U3" s="14">
-        <v>108.2555</v>
-      </c>
-      <c r="V3" s="14">
-        <v>63.486499999999999</v>
+      <c r="U3" s="8">
+        <v>177.70699999999999</v>
+      </c>
+      <c r="V3" s="8">
+        <v>14.922000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -871,7 +856,7 @@
       <c r="J4">
         <v>0.1</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="L4" s="2">
@@ -883,11 +868,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="12">
-        <v>0.63349999999999995</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0.20349999999999999</v>
+      <c r="O4" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q4" s="6">
         <v>9999</v>
@@ -897,16 +882,16 @@
       </c>
       <c r="S4" s="9">
         <f>O4*0.5</f>
-        <v>0.31674999999999998</v>
+        <v>0.41949999999999998</v>
       </c>
       <c r="T4" s="9">
         <f>P4*0.5</f>
-        <v>0.10174999999999999</v>
-      </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
         <v>0</v>
       </c>
       <c r="W4">
@@ -953,8 +938,8 @@
       <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="K5" s="12">
-        <v>7.9000000000000001E-2</v>
+      <c r="K5" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -965,11 +950,11 @@
       <c r="N5" s="2">
         <v>3.9049999999999998</v>
       </c>
-      <c r="O5" s="12">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0.628</v>
+      <c r="O5" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.17799999999999999</v>
       </c>
       <c r="Q5" s="6">
         <v>9999</v>
@@ -983,11 +968,11 @@
       <c r="T5" s="8">
         <v>0</v>
       </c>
-      <c r="U5" s="14">
-        <v>84.636499999999998</v>
-      </c>
-      <c r="V5" s="14">
-        <v>69.209000000000003</v>
+      <c r="U5" s="8">
+        <v>146.732</v>
+      </c>
+      <c r="V5" s="8">
+        <v>20.474</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1033,7 +1018,7 @@
       <c r="J6">
         <v>0.1</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="2">
         <v>0.05</v>
       </c>
       <c r="L6" s="2">
@@ -1045,11 +1030,11 @@
       <c r="N6" s="2">
         <v>2.206</v>
       </c>
-      <c r="O6" s="12">
-        <v>1.4584999999999999</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0.57899999999999996</v>
+      <c r="O6" s="2">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.20399999999999999</v>
       </c>
       <c r="Q6" s="6">
         <v>9999</v>
@@ -1063,11 +1048,11 @@
       <c r="T6" s="8">
         <v>0</v>
       </c>
-      <c r="U6" s="14">
-        <v>22.809000000000001</v>
-      </c>
-      <c r="V6" s="14">
-        <v>45.003</v>
+      <c r="U6" s="8">
+        <v>37.835000000000001</v>
+      </c>
+      <c r="V6" s="8">
+        <v>60.267000000000003</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1113,9 +1098,8 @@
       <c r="J7">
         <v>0.1</v>
       </c>
-      <c r="K7" s="12">
-        <f>3.4/2</f>
-        <v>1.7</v>
+      <c r="K7" s="2">
+        <v>3.4</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1128,13 +1112,13 @@
         <f>38.284/30</f>
         <v>1.2761333333333333</v>
       </c>
-      <c r="O7" s="13">
-        <f>7.1805/30</f>
-        <v>0.23935000000000001</v>
-      </c>
-      <c r="P7" s="13">
-        <f>4.40475/30</f>
-        <v>0.14682500000000001</v>
+      <c r="O7" s="7">
+        <f>12.372/30</f>
+        <v>0.41239999999999999</v>
+      </c>
+      <c r="P7" s="7">
+        <f>1.668/30</f>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="Q7" s="6">
         <v>9999</v>
@@ -1148,13 +1132,13 @@
       <c r="T7" s="8">
         <v>0</v>
       </c>
-      <c r="U7" s="14">
-        <f>417.85375/30</f>
-        <v>13.928458333333333</v>
-      </c>
-      <c r="V7" s="14">
-        <f>324.7765/30</f>
-        <v>10.825883333333334</v>
+      <c r="U7" s="8">
+        <f>740.509/30</f>
+        <v>24.683633333333333</v>
+      </c>
+      <c r="V7" s="8">
+        <f>271.113/30</f>
+        <v>9.0371000000000006</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1200,9 +1184,8 @@
       <c r="J8">
         <v>0.1</v>
       </c>
-      <c r="K8" s="12">
-        <f t="shared" ref="K8:K9" si="0">3.4/2</f>
-        <v>1.7</v>
+      <c r="K8" s="2">
+        <v>3.4</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1213,13 +1196,13 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" s="12">
-        <f>3.548/30</f>
-        <v>0.11826666666666667</v>
-      </c>
-      <c r="P8" s="12">
-        <f>2.4825/30</f>
-        <v>8.2750000000000004E-2</v>
+      <c r="O8" s="2">
+        <f>5.542/30</f>
+        <v>0.18473333333333333</v>
+      </c>
+      <c r="P8" s="2">
+        <f>1.704/30</f>
+        <v>5.6799999999999996E-2</v>
       </c>
       <c r="Q8" s="6">
         <v>9999</v>
@@ -1229,16 +1212,16 @@
       </c>
       <c r="S8" s="9">
         <f>O8*0.5</f>
-        <v>5.9133333333333336E-2</v>
+        <v>9.2366666666666666E-2</v>
       </c>
       <c r="T8" s="9">
         <f>P8*0.5</f>
-        <v>4.1375000000000002E-2</v>
-      </c>
-      <c r="U8" s="14">
-        <v>0</v>
-      </c>
-      <c r="V8" s="14">
+        <v>2.8399999999999998E-2</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="8">
         <v>0</v>
       </c>
       <c r="W8">
@@ -1285,9 +1268,8 @@
       <c r="J9">
         <v>0.1</v>
       </c>
-      <c r="K9" s="12">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
+      <c r="K9" s="2">
+        <v>3.4</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -1300,13 +1282,13 @@
         <f>68.396/30</f>
         <v>2.2798666666666665</v>
       </c>
-      <c r="O9" s="13">
-        <f>10.328/30</f>
-        <v>0.34426666666666667</v>
-      </c>
-      <c r="P9" s="13">
-        <f>7.014/30</f>
-        <v>0.23380000000000001</v>
+      <c r="O9" s="7">
+        <f>16.118/30</f>
+        <v>0.53726666666666667</v>
+      </c>
+      <c r="P9" s="7">
+        <f>2.637/30</f>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="Q9" s="6">
         <v>9999</v>
@@ -1320,13 +1302,13 @@
       <c r="T9" s="8">
         <v>0</v>
       </c>
-      <c r="U9" s="14">
-        <f>179.91525/30</f>
-        <v>5.9971749999999995</v>
-      </c>
-      <c r="V9" s="14">
-        <f>280.794/30</f>
-        <v>9.3597999999999999</v>
+      <c r="U9" s="8">
+        <f>411.627/30</f>
+        <v>13.7209</v>
+      </c>
+      <c r="V9" s="8">
+        <f>386.868/30</f>
+        <v>12.8956</v>
       </c>
       <c r="W9">
         <v>0</v>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC4C7CB-83E3-436F-964C-8F9F3E480E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ACC5F-EF26-4033-AF30-0ACBB3F95500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34365" yWindow="1155" windowWidth="18900" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -160,15 +160,6 @@
   </si>
   <si>
     <t>price_sigma</t>
-  </si>
-  <si>
-    <t>CO2km_min</t>
-  </si>
-  <si>
-    <t>CO2km_max</t>
-  </si>
-  <si>
-    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -176,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -201,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,30 +232,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -592,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,17 +582,16 @@
     <col min="17" max="18" width="11.109375" style="5" customWidth="1"/>
     <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.6640625" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +622,7 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -664,10 +634,10 @@
       <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -683,31 +653,25 @@
         <v>5</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="Y1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -732,7 +696,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -744,10 +708,10 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="13">
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" s="5">
@@ -766,12 +730,12 @@
         <v>0</v>
       </c>
       <c r="V2" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W2" s="12">
-        <v>0</v>
-      </c>
-      <c r="X2" s="12">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
@@ -780,14 +744,8 @@
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -818,8 +776,8 @@
       <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="11">
-        <v>3.3000000000000002E-2</v>
+      <c r="K3" s="2">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -830,11 +788,11 @@
       <c r="N3" s="2">
         <v>2.94</v>
       </c>
-      <c r="O3" s="11">
-        <v>1.3420000000000001</v>
-      </c>
-      <c r="P3" s="11">
-        <v>1.2190000000000001</v>
+      <c r="O3" s="2">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.13800000000000001</v>
       </c>
       <c r="Q3" s="6">
         <v>9999</v>
@@ -849,16 +807,16 @@
         <v>0</v>
       </c>
       <c r="U3" s="8">
-        <v>0</v>
+        <v>177.70699999999999</v>
       </c>
       <c r="V3" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W3" s="12">
-        <v>85.105000000000004</v>
-      </c>
-      <c r="X3" s="12">
-        <v>79.673000000000002</v>
+        <v>14.922000000000001</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -866,14 +824,8 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -904,7 +856,7 @@
       <c r="J4">
         <v>0.1</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="L4" s="2">
@@ -916,11 +868,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="11">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0.35099999999999998</v>
+      <c r="O4" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q4" s="6">
         <v>9999</v>
@@ -930,38 +882,32 @@
       </c>
       <c r="S4" s="9">
         <f>O4*0.5</f>
-        <v>0.214</v>
+        <v>0.41949999999999998</v>
       </c>
       <c r="T4" s="9">
         <f>P4*0.5</f>
-        <v>0.17549999999999999</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="U4" s="8">
         <v>0</v>
       </c>
       <c r="V4" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W4" s="12">
-        <v>0</v>
-      </c>
-      <c r="X4" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>80</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Z4">
-        <v>10</v>
-      </c>
-      <c r="AA4">
-        <v>60</v>
-      </c>
-      <c r="AB4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -992,8 +938,8 @@
       <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="K5" s="11">
-        <v>3.3000000000000002E-2</v>
+      <c r="K5" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1004,11 +950,11 @@
       <c r="N5" s="2">
         <v>3.9049999999999998</v>
       </c>
-      <c r="O5" s="11">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="P5" s="11">
-        <v>1.0780000000000001</v>
+      <c r="O5" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.17799999999999999</v>
       </c>
       <c r="Q5" s="6">
         <v>9999</v>
@@ -1023,16 +969,16 @@
         <v>0</v>
       </c>
       <c r="U5" s="8">
-        <v>0</v>
+        <v>146.732</v>
       </c>
       <c r="V5" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W5" s="12">
-        <v>75.765000000000001</v>
-      </c>
-      <c r="X5" s="12">
-        <v>74.77</v>
+        <v>20.474</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1040,14 +986,8 @@
       <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1078,7 +1018,7 @@
       <c r="J6">
         <v>0.1</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="2">
         <v>0.05</v>
       </c>
       <c r="L6" s="2">
@@ -1090,11 +1030,11 @@
       <c r="N6" s="2">
         <v>2.206</v>
       </c>
-      <c r="O6" s="11">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0.95399999999999996</v>
+      <c r="O6" s="2">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.20399999999999999</v>
       </c>
       <c r="Q6" s="6">
         <v>9999</v>
@@ -1109,16 +1049,16 @@
         <v>0</v>
       </c>
       <c r="U6" s="8">
-        <v>0</v>
+        <v>37.835000000000001</v>
       </c>
       <c r="V6" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W6" s="12">
-        <v>17.8</v>
-      </c>
-      <c r="X6" s="12">
-        <v>39.914999999999999</v>
+        <v>60.267000000000003</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1126,14 +1066,8 @@
       <c r="Z6">
         <v>0</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1164,8 +1098,8 @@
       <c r="J7">
         <v>0.1</v>
       </c>
-      <c r="K7" s="11">
-        <v>0</v>
+      <c r="K7" s="2">
+        <v>3.4</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1178,13 +1112,13 @@
         <f>38.284/30</f>
         <v>1.2761333333333333</v>
       </c>
-      <c r="O7" s="14">
-        <f>5.45/30</f>
-        <v>0.18166666666666667</v>
-      </c>
-      <c r="P7" s="14">
-        <f>5.317/30</f>
-        <v>0.17723333333333333</v>
+      <c r="O7" s="7">
+        <f>12.372/30</f>
+        <v>0.41239999999999999</v>
+      </c>
+      <c r="P7" s="7">
+        <f>1.668/30</f>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="Q7" s="6">
         <v>9999</v>
@@ -1199,18 +1133,18 @@
         <v>0</v>
       </c>
       <c r="U7" s="8">
-        <v>0</v>
+        <f>740.509/30</f>
+        <v>24.683633333333333</v>
       </c>
       <c r="V7" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W7" s="12">
-        <f>310.302/30</f>
-        <v>10.343400000000001</v>
-      </c>
-      <c r="X7" s="12">
-        <f>342.664/30</f>
-        <v>11.422133333333333</v>
+        <f>271.113/30</f>
+        <v>9.0371000000000006</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1218,14 +1152,8 @@
       <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1256,8 +1184,8 @@
       <c r="J8">
         <v>0.1</v>
       </c>
-      <c r="K8" s="11">
-        <v>0</v>
+      <c r="K8" s="2">
+        <v>3.4</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1268,13 +1196,13 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" s="11">
-        <f>2.883/30</f>
-        <v>9.6100000000000005E-2</v>
-      </c>
-      <c r="P8" s="11">
-        <f>2.742/30</f>
-        <v>9.1399999999999995E-2</v>
+      <c r="O8" s="2">
+        <f>5.542/30</f>
+        <v>0.18473333333333333</v>
+      </c>
+      <c r="P8" s="2">
+        <f>1.704/30</f>
+        <v>5.6799999999999996E-2</v>
       </c>
       <c r="Q8" s="6">
         <v>9999</v>
@@ -1284,38 +1212,32 @@
       </c>
       <c r="S8" s="9">
         <f>O8*0.5</f>
-        <v>4.8050000000000002E-2</v>
+        <v>9.2366666666666666E-2</v>
       </c>
       <c r="T8" s="9">
         <f>P8*0.5</f>
-        <v>4.5699999999999998E-2</v>
+        <v>2.8399999999999998E-2</v>
       </c>
       <c r="U8" s="8">
         <v>0</v>
       </c>
       <c r="V8" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W8" s="12">
-        <v>0</v>
-      </c>
-      <c r="X8" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>80</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
       </c>
       <c r="Y8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Z8">
-        <v>10</v>
-      </c>
-      <c r="AA8">
-        <v>60</v>
-      </c>
-      <c r="AB8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1346,8 +1268,8 @@
       <c r="J9">
         <v>0.1</v>
       </c>
-      <c r="K9" s="11">
-        <v>0</v>
+      <c r="K9" s="2">
+        <v>3.4</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -1360,13 +1282,13 @@
         <f>68.396/30</f>
         <v>2.2798666666666665</v>
       </c>
-      <c r="O9" s="14">
-        <f>8.398/30</f>
-        <v>0.27993333333333331</v>
-      </c>
-      <c r="P9" s="14">
-        <f>8.473/30</f>
-        <v>0.28243333333333337</v>
+      <c r="O9" s="7">
+        <f>16.118/30</f>
+        <v>0.53726666666666667</v>
+      </c>
+      <c r="P9" s="7">
+        <f>2.637/30</f>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="Q9" s="6">
         <v>9999</v>
@@ -1381,18 +1303,18 @@
         <v>0</v>
       </c>
       <c r="U9" s="8">
-        <v>0</v>
+        <f>411.627/30</f>
+        <v>13.7209</v>
       </c>
       <c r="V9" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W9" s="12">
-        <f>102.678/30</f>
-        <v>3.4226000000000001</v>
-      </c>
-      <c r="X9" s="12">
-        <f>196.822/30</f>
-        <v>6.5607333333333333</v>
+        <f>386.868/30</f>
+        <v>12.8956</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1400,175 +1322,57 @@
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="11">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>9999</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <f>O10*0.5</f>
-        <v>0.214</v>
-      </c>
-      <c r="T10" s="9">
-        <f>P10*0.5</f>
-        <v>0.17549999999999999</v>
-      </c>
-      <c r="U10" s="8">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8">
-        <v>999999</v>
-      </c>
-      <c r="W10" s="12">
-        <v>0</v>
-      </c>
-      <c r="X10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>80</v>
-      </c>
-      <c r="Z10">
-        <v>10</v>
-      </c>
-      <c r="AA10">
-        <v>60</v>
-      </c>
-      <c r="AB10">
-        <v>100</v>
-      </c>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="Q11"/>
-      <c r="R11"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="Q12"/>
-      <c r="R12"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="Q13"/>
-      <c r="R13"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="Q14"/>
-      <c r="R14"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="Q15"/>
-      <c r="R15"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="Q16"/>
-      <c r="R16"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 U3:V9 S4:T4 T4:T7 A11:XFD1048576 A10:J10 S10:V10">
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+  <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 S4:XFD4 T4:T7 A10:L10 A11:XFD1048576">
+    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:P4">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:P8">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:T3">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+  <conditionalFormatting sqref="O3:XFD3">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:R10">
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S7">
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:T9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="S8:T10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:XFD10">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10:P10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="U5:XFD10">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ACC5F-EF26-4033-AF30-0ACBB3F95500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFEDD4D-FDEE-49F1-9055-5AB2D1FA71A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>price_sigma</t>
+  </si>
+  <si>
+    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -232,11 +235,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +569,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,11 +1327,84 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="6"/>
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9999</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="T10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">

--- a/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFEDD4D-FDEE-49F1-9055-5AB2D1FA71A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAEE513-97B3-4FC8-81A2-8AC298B107B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
